--- a/contratos/contratos-6-2011.xlsx
+++ b/contratos/contratos-6-2011.xlsx
@@ -517,7 +517,7 @@
     <t>INGANI ALBERTO RAMON</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
   </si>
   <si>
     <t>PEREZ DANIEL RUBEN</t>
@@ -583,7 +583,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -1006,421 +1006,421 @@
     <t>141</t>
   </si>
   <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>1.870,00</t>
-  </si>
-  <si>
-    <t>29.749,99</t>
-  </si>
-  <si>
-    <t>86.346,21</t>
-  </si>
-  <si>
-    <t>15,00</t>
-  </si>
-  <si>
-    <t>597,00</t>
-  </si>
-  <si>
-    <t>1.271,00</t>
-  </si>
-  <si>
-    <t>821,00</t>
-  </si>
-  <si>
-    <t>16.170,89</t>
-  </si>
-  <si>
-    <t>51,12</t>
-  </si>
-  <si>
-    <t>9.376,96</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>260,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>28.184,00</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>511,80</t>
-  </si>
-  <si>
-    <t>36.186,00</t>
-  </si>
-  <si>
-    <t>4.908,85</t>
-  </si>
-  <si>
-    <t>42.830,00</t>
-  </si>
-  <si>
-    <t>591,25</t>
-  </si>
-  <si>
-    <t>9.074,50</t>
-  </si>
-  <si>
-    <t>90,80</t>
-  </si>
-  <si>
-    <t>7.337,20</t>
-  </si>
-  <si>
-    <t>33.920,70</t>
-  </si>
-  <si>
-    <t>1.097,00</t>
-  </si>
-  <si>
-    <t>2.377,00</t>
-  </si>
-  <si>
-    <t>11.752,69</t>
-  </si>
-  <si>
-    <t>134,00</t>
-  </si>
-  <si>
-    <t>13.390,98</t>
-  </si>
-  <si>
-    <t>142,00</t>
-  </si>
-  <si>
-    <t>52,20</t>
-  </si>
-  <si>
-    <t>14,00</t>
-  </si>
-  <si>
-    <t>218,14</t>
-  </si>
-  <si>
-    <t>336,00</t>
-  </si>
-  <si>
-    <t>4.485,00</t>
-  </si>
-  <si>
-    <t>22.760,00</t>
-  </si>
-  <si>
-    <t>18.295,00</t>
-  </si>
-  <si>
-    <t>308,69</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.972,30</t>
-  </si>
-  <si>
-    <t>35.011,75</t>
-  </si>
-  <si>
-    <t>4.008,60</t>
-  </si>
-  <si>
-    <t>665,50</t>
-  </si>
-  <si>
-    <t>3.452,60</t>
-  </si>
-  <si>
-    <t>118,40</t>
-  </si>
-  <si>
-    <t>52.152,00</t>
-  </si>
-  <si>
-    <t>26.470,00</t>
-  </si>
-  <si>
-    <t>7.715,90</t>
-  </si>
-  <si>
-    <t>35.145,50</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>9.212,00</t>
-  </si>
-  <si>
-    <t>525,00</t>
-  </si>
-  <si>
-    <t>957,00</t>
-  </si>
-  <si>
-    <t>841,00</t>
-  </si>
-  <si>
-    <t>202,87</t>
-  </si>
-  <si>
-    <t>286,00</t>
-  </si>
-  <si>
-    <t>3.293,62</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>107.070,00</t>
-  </si>
-  <si>
-    <t>1,16</t>
-  </si>
-  <si>
-    <t>110,96</t>
-  </si>
-  <si>
-    <t>7.788,85</t>
-  </si>
-  <si>
-    <t>1.874,06</t>
-  </si>
-  <si>
-    <t>2.652,32</t>
-  </si>
-  <si>
-    <t>8.218,84</t>
-  </si>
-  <si>
-    <t>1.741,60</t>
-  </si>
-  <si>
-    <t>6.941,25</t>
-  </si>
-  <si>
-    <t>7.166,00</t>
-  </si>
-  <si>
-    <t>265,05</t>
-  </si>
-  <si>
-    <t>165,50</t>
-  </si>
-  <si>
-    <t>198,00</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>3.790,00</t>
-  </si>
-  <si>
-    <t>412,00</t>
-  </si>
-  <si>
-    <t>7.195,00</t>
-  </si>
-  <si>
-    <t>1.012,12</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>953,48</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>175,00</t>
-  </si>
-  <si>
-    <t>5.920,00</t>
-  </si>
-  <si>
-    <t>2.465,00</t>
-  </si>
-  <si>
-    <t>2.130,00</t>
-  </si>
-  <si>
-    <t>125.000,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>1.185.000,00</t>
-  </si>
-  <si>
-    <t>30.557,43</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>9.265,70</t>
-  </si>
-  <si>
-    <t>26.983,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>9.171,52</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>7.719,80</t>
-  </si>
-  <si>
-    <t>3.240,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>16.780,00</t>
-  </si>
-  <si>
-    <t>625,00</t>
-  </si>
-  <si>
-    <t>153,36</t>
-  </si>
-  <si>
-    <t>245,00</t>
-  </si>
-  <si>
-    <t>185,69</t>
-  </si>
-  <si>
-    <t>175,45</t>
-  </si>
-  <si>
-    <t>4.456,00</t>
-  </si>
-  <si>
-    <t>3.449,00</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>224,00</t>
-  </si>
-  <si>
-    <t>258,34</t>
-  </si>
-  <si>
-    <t>638,10</t>
-  </si>
-  <si>
-    <t>2.238,28</t>
-  </si>
-  <si>
-    <t>158,40</t>
-  </si>
-  <si>
-    <t>21.157,20</t>
-  </si>
-  <si>
-    <t>33.032,40</t>
-  </si>
-  <si>
-    <t>3.234,83</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>49.950,00</t>
-  </si>
-  <si>
-    <t>823.153,86</t>
-  </si>
-  <si>
-    <t>278.500,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>157.000,00</t>
-  </si>
-  <si>
-    <t>18.480,00</t>
-  </si>
-  <si>
-    <t>151.829,00</t>
-  </si>
-  <si>
-    <t>212.500,00</t>
-  </si>
-  <si>
-    <t>294.000,00</t>
-  </si>
-  <si>
-    <t>266.000,00</t>
-  </si>
-  <si>
-    <t>147.500,00</t>
-  </si>
-  <si>
-    <t>6.700,00</t>
-  </si>
-  <si>
-    <t>7.902,00</t>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>1870.00</t>
+  </si>
+  <si>
+    <t>29749.99</t>
+  </si>
+  <si>
+    <t>86346.21</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>597.00</t>
+  </si>
+  <si>
+    <t>1271.00</t>
+  </si>
+  <si>
+    <t>821.00</t>
+  </si>
+  <si>
+    <t>16170.89</t>
+  </si>
+  <si>
+    <t>51.12</t>
+  </si>
+  <si>
+    <t>9376.96</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>28184.00</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>511.80</t>
+  </si>
+  <si>
+    <t>36186.00</t>
+  </si>
+  <si>
+    <t>4908.85</t>
+  </si>
+  <si>
+    <t>42830.00</t>
+  </si>
+  <si>
+    <t>591.25</t>
+  </si>
+  <si>
+    <t>9074.50</t>
+  </si>
+  <si>
+    <t>90.80</t>
+  </si>
+  <si>
+    <t>7337.20</t>
+  </si>
+  <si>
+    <t>33920.70</t>
+  </si>
+  <si>
+    <t>1097.00</t>
+  </si>
+  <si>
+    <t>2377.00</t>
+  </si>
+  <si>
+    <t>11752.69</t>
+  </si>
+  <si>
+    <t>134.00</t>
+  </si>
+  <si>
+    <t>13390.98</t>
+  </si>
+  <si>
+    <t>142.00</t>
+  </si>
+  <si>
+    <t>52.20</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>218.14</t>
+  </si>
+  <si>
+    <t>336.00</t>
+  </si>
+  <si>
+    <t>4485.00</t>
+  </si>
+  <si>
+    <t>22760.00</t>
+  </si>
+  <si>
+    <t>18295.00</t>
+  </si>
+  <si>
+    <t>308.69</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1972.30</t>
+  </si>
+  <si>
+    <t>35011.75</t>
+  </si>
+  <si>
+    <t>4008.60</t>
+  </si>
+  <si>
+    <t>665.50</t>
+  </si>
+  <si>
+    <t>3452.60</t>
+  </si>
+  <si>
+    <t>118.40</t>
+  </si>
+  <si>
+    <t>52152.00</t>
+  </si>
+  <si>
+    <t>26470.00</t>
+  </si>
+  <si>
+    <t>7715.90</t>
+  </si>
+  <si>
+    <t>35145.50</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>9212.00</t>
+  </si>
+  <si>
+    <t>525.00</t>
+  </si>
+  <si>
+    <t>957.00</t>
+  </si>
+  <si>
+    <t>841.00</t>
+  </si>
+  <si>
+    <t>202.87</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>3293.62</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>107070.00</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>110.96</t>
+  </si>
+  <si>
+    <t>7788.85</t>
+  </si>
+  <si>
+    <t>1874.06</t>
+  </si>
+  <si>
+    <t>2652.32</t>
+  </si>
+  <si>
+    <t>8218.84</t>
+  </si>
+  <si>
+    <t>1741.60</t>
+  </si>
+  <si>
+    <t>6941.25</t>
+  </si>
+  <si>
+    <t>7166.00</t>
+  </si>
+  <si>
+    <t>265.05</t>
+  </si>
+  <si>
+    <t>165.50</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>3790.00</t>
+  </si>
+  <si>
+    <t>412.00</t>
+  </si>
+  <si>
+    <t>7195.00</t>
+  </si>
+  <si>
+    <t>1012.12</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>953.48</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>5920.00</t>
+  </si>
+  <si>
+    <t>2465.00</t>
+  </si>
+  <si>
+    <t>2130.00</t>
+  </si>
+  <si>
+    <t>125000.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>1185000.00</t>
+  </si>
+  <si>
+    <t>30557.43</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>9265.70</t>
+  </si>
+  <si>
+    <t>26983.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>9171.52</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>7719.80</t>
+  </si>
+  <si>
+    <t>3240.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>16780.00</t>
+  </si>
+  <si>
+    <t>625.00</t>
+  </si>
+  <si>
+    <t>153.36</t>
+  </si>
+  <si>
+    <t>245.00</t>
+  </si>
+  <si>
+    <t>185.69</t>
+  </si>
+  <si>
+    <t>175.45</t>
+  </si>
+  <si>
+    <t>4456.00</t>
+  </si>
+  <si>
+    <t>3449.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>224.00</t>
+  </si>
+  <si>
+    <t>258.34</t>
+  </si>
+  <si>
+    <t>638.10</t>
+  </si>
+  <si>
+    <t>2238.28</t>
+  </si>
+  <si>
+    <t>158.40</t>
+  </si>
+  <si>
+    <t>21157.20</t>
+  </si>
+  <si>
+    <t>33032.40</t>
+  </si>
+  <si>
+    <t>3234.83</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>49950.00</t>
+  </si>
+  <si>
+    <t>823153.86</t>
+  </si>
+  <si>
+    <t>278500.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>157000.00</t>
+  </si>
+  <si>
+    <t>18480.00</t>
+  </si>
+  <si>
+    <t>151829.00</t>
+  </si>
+  <si>
+    <t>212500.00</t>
+  </si>
+  <si>
+    <t>294000.00</t>
+  </si>
+  <si>
+    <t>266000.00</t>
+  </si>
+  <si>
+    <t>147500.00</t>
+  </si>
+  <si>
+    <t>6700.00</t>
+  </si>
+  <si>
+    <t>7902.00</t>
   </si>
 </sst>
 </file>
